--- a/Riddhi/Test case and defect report.xlsx
+++ b/Riddhi/Test case and defect report.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="143">
   <si>
     <t>Test scenario ID</t>
   </si>
@@ -368,13 +368,100 @@
   </si>
   <si>
     <t>customer phone email id</t>
+  </si>
+  <si>
+    <t>Edit customer</t>
+  </si>
+  <si>
+    <t>Verify customer ID</t>
+  </si>
+  <si>
+    <t>Verify phone number</t>
+  </si>
+  <si>
+    <t>Verify email adress</t>
+  </si>
+  <si>
+    <t>Check with valid ID</t>
+  </si>
+  <si>
+    <t>Edit customer form</t>
+  </si>
+  <si>
+    <t>Manager must be log in with valid credentials</t>
+  </si>
+  <si>
+    <t>*^#</t>
+  </si>
+  <si>
+    <t>ash</t>
+  </si>
+  <si>
+    <t>Delete customer</t>
+  </si>
+  <si>
+    <t>sc_new_11</t>
+  </si>
+  <si>
+    <t>verify customer ID</t>
+  </si>
+  <si>
+    <t>Add new account</t>
+  </si>
+  <si>
+    <t>sc_new_12</t>
+  </si>
+  <si>
+    <t>sc_new_13</t>
+  </si>
+  <si>
+    <t>verify customer account type</t>
+  </si>
+  <si>
+    <t>sc_new_14</t>
+  </si>
+  <si>
+    <t>verify customer initial deposit</t>
+  </si>
+  <si>
+    <t>Edit account</t>
+  </si>
+  <si>
+    <t>sc_new_15</t>
+  </si>
+  <si>
+    <t>verify customer account number</t>
+  </si>
+  <si>
+    <t>Delete account</t>
+  </si>
+  <si>
+    <t>sc_new_16</t>
+  </si>
+  <si>
+    <t>customised statement</t>
+  </si>
+  <si>
+    <t>sc_new_17</t>
+  </si>
+  <si>
+    <t>sc_new_18</t>
+  </si>
+  <si>
+    <t>verify amount lower limit</t>
+  </si>
+  <si>
+    <t>sc_new_19</t>
+  </si>
+  <si>
+    <t>verify number of transection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,6 +523,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -458,7 +561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -482,6 +585,8 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -763,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,11 +880,11 @@
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
@@ -840,15 +945,134 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -859,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="P51" sqref="P51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1795,6 +2019,123 @@
         <v>112</v>
       </c>
     </row>
+    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" t="s">
+        <v>122</v>
+      </c>
+      <c r="G46" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" t="s">
+        <v>120</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47">
+        <v>123456789</v>
+      </c>
+      <c r="G47" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" t="s">
+        <v>43</v>
+      </c>
+      <c r="I47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B48" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="4">
+        <v>123</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F13" r:id="rId1" display="surat*&amp;@"/>
@@ -1805,6 +2146,7 @@
     <hyperlink ref="F41" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/Riddhi/Test case and defect report.xlsx
+++ b/Riddhi/Test case and defect report.xlsx
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="P51" sqref="P51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
